--- a/Ver2/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Ver2/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="W2" t="n">
-        <v>115219000</v>
+        <v>96219000</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>4498000</v>
+        <v>23498000</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>138895000</v>
+        <v>119895000</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="AH2" t="n">
-        <v>125895000</v>
+        <v>106895000</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>196011000</v>
+        <v>141611000</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>20000000</v>
+        <v>74400000</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>524850000</v>
+        <v>470450000</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="AH3" t="n">
-        <v>501450000</v>
+        <v>447050000</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="W6" t="n">
-        <v>258230000</v>
+        <v>227830000</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>-1600000</v>
+        <v>28800000</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>432500000</v>
+        <v>402100000</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="AH6" t="n">
-        <v>412500000</v>
+        <v>382100000</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>147628000</v>
+        <v>112842000</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>9500000</v>
+        <v>44286000</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>168772000</v>
+        <v>133986000</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="AH8" t="n">
-        <v>149586000</v>
+        <v>114800000</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="W11" t="n">
-        <v>216504000</v>
+        <v>200504000</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>43600000</v>
+        <v>59600000</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>322700000</v>
+        <v>306700000</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="AH11" t="n">
-        <v>260700000</v>
+        <v>244700000</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>61043000</v>
+        <v>54043000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>212588000</v>
+        <v>205588000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>186588000</v>
+        <v>179588000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>193588000</v>
+        <v>194588000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
